--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -14,12 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Get BOM Models by project id should be done by asqueryable()</t>
   </si>
   <si>
     <t>Frm_BOM</t>
+  </si>
+  <si>
+    <t>lock after save() is pressed</t>
+  </si>
+  <si>
+    <t>try cathc on every function</t>
+  </si>
+  <si>
+    <t>project and BOM should save in one go</t>
+  </si>
+  <si>
+    <t>if empty copToOtherSheet() is making error</t>
+  </si>
+  <si>
+    <t>when load from database _pc also has bom values so no need to recall for bom</t>
+  </si>
+  <si>
+    <t>btnSave</t>
+  </si>
+  <si>
+    <t>project and bom should save in one go. And through project contrller</t>
   </si>
 </sst>
 </file>
@@ -362,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q2"/>
+  <dimension ref="A2:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,6 +406,40 @@
         <v>43829</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
